--- a/data/thermal/2018_nyca_nonthermal.xlsx
+++ b/data/thermal/2018_nyca_nonthermal.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\OneMet\generator_matching\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A42EDD-98CD-45BB-B656-1305B4AED889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-23148" yWindow="1272" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nuclear" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hydro" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Import" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Wind" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="UPV" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Storage" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Others" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Nuclear" sheetId="1" r:id="rId1"/>
+    <sheet name="Hydro" sheetId="2" r:id="rId2"/>
+    <sheet name="Import" sheetId="3" r:id="rId3"/>
+    <sheet name="Wind" sheetId="4" r:id="rId4"/>
+    <sheet name="UPV" sheetId="5" r:id="rId5"/>
+    <sheet name="Storage" sheetId="6" r:id="rId6"/>
+    <sheet name="Others" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,429 +31,427 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="136">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity (MW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel Type Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017 Net Energy (GWh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gen_bus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indian Point 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indian Point 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James A. FitzPatrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nine Mile Point 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nine Mile Point 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. E. Ginna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moses Niagara (Fleet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Lawrence - FDR (Fleet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_B_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYGRID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_C_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_C_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_D_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_E_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_E_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_F_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro_G_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_NE_CSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_NE_NNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_NE_ZF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_NE_ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_IESO_ZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IESO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_IESO_ZA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_IESO_ZA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PJM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_ZC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_NEPTUNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_HTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_PJM_VFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_HQ_CEDARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import_HQ_NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bliss Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Bliss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erie Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Winds II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel Winds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western NY Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wethersfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canandaigua Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch Hill/Cohocton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenner Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenner Wind Power Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Sheldon Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Sheldon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsh Hill Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsh Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orangeville Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orangeville Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wethersfield Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Wethersfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altona Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Altona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chateaugay Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Chateaugay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinton Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellenburg Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noble Ellenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jericho Rise Wind Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jericho Rise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marble River Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marble River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardscrabble Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardscrabble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison Windpower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Ridge Wind 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Ridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Ridge Wind 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maple Ridge (Lowville)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munnsville Wind Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munnsville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Island Solar Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilboa 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilboa 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilboa 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilboa 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewiston PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023 Net Energy (GWh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_A_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_A_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_B_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_C_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_C_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_C_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_C_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_D_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_E_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_E_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_F_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_F_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_F_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_F_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_G_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_H_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_K_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_K_2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="137">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>PTID</t>
+  </si>
+  <si>
+    <t>Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>Fuel Type Primary</t>
+  </si>
+  <si>
+    <t>2017 Net Energy (GWh)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>min_gen</t>
+  </si>
+  <si>
+    <t>gen_bus</t>
+  </si>
+  <si>
+    <t>Indian Point 2</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>NYISO</t>
+  </si>
+  <si>
+    <t>Indian Point 3</t>
+  </si>
+  <si>
+    <t>James A. FitzPatrick</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Nine Mile Point 1</t>
+  </si>
+  <si>
+    <t>Nine Mile Point 2</t>
+  </si>
+  <si>
+    <t>R. E. Ginna</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Moses Niagara (Fleet)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>St Lawrence - FDR (Fleet)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Hydro_B_1</t>
+  </si>
+  <si>
+    <t>NYGRID</t>
+  </si>
+  <si>
+    <t>Hydro_C_1</t>
+  </si>
+  <si>
+    <t>Hydro_C_2</t>
+  </si>
+  <si>
+    <t>Hydro_D_1</t>
+  </si>
+  <si>
+    <t>Hydro_E_1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Hydro_E_2</t>
+  </si>
+  <si>
+    <t>Hydro_F_1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Hydro_G_1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Import_NE_CSC</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Import_NE_NNC</t>
+  </si>
+  <si>
+    <t>Import_NE_ZF</t>
+  </si>
+  <si>
+    <t>Import_NE_ZG</t>
+  </si>
+  <si>
+    <t>Import_IESO_ZD</t>
+  </si>
+  <si>
+    <t>IESO</t>
+  </si>
+  <si>
+    <t>Import_IESO_ZA1</t>
+  </si>
+  <si>
+    <t>Import_IESO_ZA2</t>
+  </si>
+  <si>
+    <t>Import_PJM_ZA</t>
+  </si>
+  <si>
+    <t>PJM</t>
+  </si>
+  <si>
+    <t>Import_PJM_ZC</t>
+  </si>
+  <si>
+    <t>Import_PJM_ZG</t>
+  </si>
+  <si>
+    <t>Import_PJM_NEPTUNE</t>
+  </si>
+  <si>
+    <t>Import_PJM_HTP</t>
+  </si>
+  <si>
+    <t>Import_PJM_VFT</t>
+  </si>
+  <si>
+    <t>Import_HQ_CEDARS</t>
+  </si>
+  <si>
+    <t>Import_HQ_NY</t>
+  </si>
+  <si>
+    <t>Bliss Wind Power</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>WND</t>
+  </si>
+  <si>
+    <t>Noble Bliss</t>
+  </si>
+  <si>
+    <t>Erie Wind</t>
+  </si>
+  <si>
+    <t>Steel Winds II</t>
+  </si>
+  <si>
+    <t>Steel Wind</t>
+  </si>
+  <si>
+    <t>Steel Winds</t>
+  </si>
+  <si>
+    <t>Western NY Wind Power</t>
+  </si>
+  <si>
+    <t>Wethersfield</t>
+  </si>
+  <si>
+    <t>Canandaigua Wind Power</t>
+  </si>
+  <si>
+    <t>Dutch Hill/Cohocton</t>
+  </si>
+  <si>
+    <t>Fenner Wind Power</t>
+  </si>
+  <si>
+    <t>Fenner Wind Power Project</t>
+  </si>
+  <si>
+    <t>High Sheldon Wind Farm</t>
+  </si>
+  <si>
+    <t>High Sheldon</t>
+  </si>
+  <si>
+    <t>Howard Wind</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Marsh Hill Wind Farm</t>
+  </si>
+  <si>
+    <t>Marsh Hill</t>
+  </si>
+  <si>
+    <t>Orangeville Wind Farm</t>
+  </si>
+  <si>
+    <t>Orangeville Wind</t>
+  </si>
+  <si>
+    <t>Wethersfield Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Wethersfield</t>
+  </si>
+  <si>
+    <t>Altona Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Altona</t>
+  </si>
+  <si>
+    <t>Chateaugay Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Chateaugay</t>
+  </si>
+  <si>
+    <t>Clinton Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Clinton</t>
+  </si>
+  <si>
+    <t>Ellenburg Wind Power</t>
+  </si>
+  <si>
+    <t>Noble Ellenburg</t>
+  </si>
+  <si>
+    <t>Jericho Rise Wind Farm</t>
+  </si>
+  <si>
+    <t>Jericho Rise</t>
+  </si>
+  <si>
+    <t>Marble River Wind</t>
+  </si>
+  <si>
+    <t>Marble River</t>
+  </si>
+  <si>
+    <t>Hardscrabble Wind</t>
+  </si>
+  <si>
+    <t>Hardscrabble</t>
+  </si>
+  <si>
+    <t>Madison Wind Power</t>
+  </si>
+  <si>
+    <t>Madison Windpower</t>
+  </si>
+  <si>
+    <t>Maple Ridge Wind 1</t>
+  </si>
+  <si>
+    <t>Maple Ridge</t>
+  </si>
+  <si>
+    <t>Maple Ridge Wind 2</t>
+  </si>
+  <si>
+    <t>Maple Ridge (Lowville)</t>
+  </si>
+  <si>
+    <t>Munnsville Wind Power</t>
+  </si>
+  <si>
+    <t>Munnsville</t>
+  </si>
+  <si>
+    <t>Long Island Solar Farm</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>Gilboa 1</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Gilboa 2</t>
+  </si>
+  <si>
+    <t>Gilboa 3</t>
+  </si>
+  <si>
+    <t>Gilboa 4</t>
+  </si>
+  <si>
+    <t>Lewiston PS</t>
+  </si>
+  <si>
+    <t>2023 Net Energy (GWh)</t>
+  </si>
+  <si>
+    <t>Other_A_1</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other_A_2</t>
+  </si>
+  <si>
+    <t>Other_B_1</t>
+  </si>
+  <si>
+    <t>Other_C_1</t>
+  </si>
+  <si>
+    <t>Other_C_2</t>
+  </si>
+  <si>
+    <t>Other_C_3</t>
+  </si>
+  <si>
+    <t>Other_C_4</t>
+  </si>
+  <si>
+    <t>Other_D_1</t>
+  </si>
+  <si>
+    <t>Other_E_1</t>
+  </si>
+  <si>
+    <t>Other_E_2</t>
+  </si>
+  <si>
+    <t>Other_F_1</t>
+  </si>
+  <si>
+    <t>Other_F_2</t>
+  </si>
+  <si>
+    <t>Other_F_3</t>
+  </si>
+  <si>
+    <t>Other_F_4</t>
+  </si>
+  <si>
+    <t>Other_G_1</t>
+  </si>
+  <si>
+    <t>Other_H_1</t>
+  </si>
+  <si>
+    <t>Other_K_1</t>
+  </si>
+  <si>
+    <t>Other_K_2</t>
+  </si>
+  <si>
+    <t>Long Island Solar Farm, LLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="mmm\-yy"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,22 +460,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11.5"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
@@ -506,144 +494,432 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,17 +951,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="9">
         <v>23530</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>1026.5</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -694,31 +970,31 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="n">
-        <v>8351.927</v>
+      <c r="G2" s="10">
+        <v>8351.9269999999997</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="n">
+      <c r="I2" s="10">
         <v>769.875</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="9">
         <v>23531</v>
       </c>
-      <c r="D3" s="10" t="n">
-        <v>1040.4</v>
+      <c r="D3" s="10">
+        <v>1040.4000000000001</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -726,30 +1002,30 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="n">
-        <v>6952.478</v>
+      <c r="G3" s="10">
+        <v>6952.4780000000001</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="10">
         <v>780.3</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="9">
         <v>23598</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>858.9</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -758,30 +1034,30 @@
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="n">
-        <v>6174.2552</v>
+      <c r="G4" s="10">
+        <v>6174.2551999999996</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>644.175</v>
-      </c>
-      <c r="J4" s="11" t="n">
+      <c r="I4" s="10">
+        <v>644.17499999999995</v>
+      </c>
+      <c r="J4" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>23575</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>630.5</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -790,31 +1066,31 @@
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="n">
-        <v>5024.36464</v>
+      <c r="G5" s="10">
+        <v>5024.3646399999998</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>472.875</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>23744</v>
       </c>
-      <c r="D6" s="10" t="n">
-        <v>1246.6</v>
+      <c r="D6" s="10">
+        <v>1246.5999999999999</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
@@ -822,30 +1098,30 @@
       <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="10">
         <v>11016.4097</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="10">
         <v>934.95</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>23603</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>582</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -854,47 +1130,39 @@
       <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10" t="n">
-        <v>4655.157</v>
+      <c r="G7" s="10">
+        <v>4655.1570000000002</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>436.5</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.66"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,17 +1194,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="9">
         <v>23760</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>2460</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -945,30 +1213,30 @@
       <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="10" t="n">
-        <v>15785.728</v>
+      <c r="G2" s="10">
+        <v>15785.727999999999</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11" t="n">
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="9">
         <v>23600</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="10">
         <v>856</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -977,20 +1245,20 @@
       <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10" t="n">
-        <v>7651.485</v>
+      <c r="G3" s="10">
+        <v>7651.4849999999997</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="n">
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
@@ -998,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="11">
         <v>63.8</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1011,14 +1279,14 @@
       <c r="H4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="n">
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
@@ -1026,8 +1294,8 @@
         <v>17</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="n">
-        <v>71.4</v>
+      <c r="D5" s="11">
+        <v>71.400000000000006</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>25</v>
@@ -1039,14 +1307,14 @@
       <c r="H5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11" t="n">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
@@ -1054,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="11">
         <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1067,14 +1335,14 @@
       <c r="H6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="n">
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
         <v>68</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1350,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>58.8</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1095,14 +1363,14 @@
       <c r="H7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11" t="n">
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
@@ -1110,7 +1378,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>28.6</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1123,14 +1391,14 @@
       <c r="H8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11" t="n">
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
@@ -1138,7 +1406,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>347.7</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1151,14 +1419,14 @@
       <c r="H9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11" t="n">
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
@@ -1166,8 +1434,8 @@
         <v>38</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11" t="n">
-        <v>269.6</v>
+      <c r="D10" s="11">
+        <v>269.60000000000002</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>25</v>
@@ -1179,14 +1447,14 @@
       <c r="H10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="n">
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
@@ -1194,7 +1462,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>75.8</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1207,41 +1475,33 @@
       <c r="H11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11" t="n">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
@@ -1281,7 +1541,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="11">
         <v>330</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1294,14 +1554,14 @@
       <c r="H2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11" t="n">
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
@@ -1309,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="11">
         <v>200</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -1322,14 +1582,14 @@
       <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="11">
         <v>-200</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>45</v>
       </c>
@@ -1337,7 +1597,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="11">
         <v>800</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -1350,14 +1610,14 @@
       <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="11">
         <v>-800</v>
       </c>
-      <c r="J4" s="11" t="n">
+      <c r="J4" s="11">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
@@ -1365,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>600</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -1378,14 +1638,14 @@
       <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="11">
         <v>-800</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
@@ -1393,7 +1653,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="11">
         <v>300</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1406,14 +1666,14 @@
       <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="11">
         <v>-300</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>49</v>
       </c>
@@ -1421,7 +1681,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>825</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -1434,14 +1694,14 @@
       <c r="H7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="11">
         <v>-725</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>50</v>
       </c>
@@ -1449,7 +1709,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>825</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1462,14 +1722,14 @@
       <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="11">
         <v>-725</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="11">
         <v>103</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
@@ -1477,7 +1737,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>550</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1490,14 +1750,14 @@
       <c r="H9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="11">
         <v>-550</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>134</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
@@ -1505,7 +1765,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>900</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1518,14 +1778,14 @@
       <c r="H10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="11">
         <v>-500</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="11">
         <v>138</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1533,7 +1793,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>1045</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -1546,14 +1806,14 @@
       <c r="H11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="11">
         <v>-1000</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="11">
         <v>124</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
@@ -1561,7 +1821,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>660</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1574,14 +1834,14 @@
       <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11" t="n">
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>56</v>
       </c>
@@ -1589,7 +1849,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>660</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -1602,14 +1862,14 @@
       <c r="H13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11" t="n">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
@@ -1617,7 +1877,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="11">
         <v>315</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -1630,14 +1890,14 @@
       <c r="H14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="11">
         <v>-315</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="J14" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1905,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>199</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1658,14 +1918,14 @@
       <c r="H15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11" t="n">
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
@@ -1673,7 +1933,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="11">
         <v>1500</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -1686,57 +1946,35 @@
       <c r="H16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="n">
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1768,17 +2006,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="9">
         <v>323608</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>100.5</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1787,30 +2025,30 @@
       <c r="F2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="10" t="n">
-        <v>210.436355</v>
+      <c r="G2" s="10">
+        <v>210.43635499999999</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11" t="n">
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="9">
         <v>323693</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="10">
         <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1819,30 +2057,30 @@
       <c r="F3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="10">
         <v>36.837384</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="n">
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="9">
         <v>323596</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1851,30 +2089,30 @@
       <c r="F4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="10">
         <v>51.803334</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="n">
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>24143</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>6.6</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1883,30 +2121,30 @@
       <c r="F5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="10" t="n">
-        <v>7.140427</v>
+      <c r="G5" s="10">
+        <v>7.1404269999999999</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11" t="n">
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>323617</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>125</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1915,30 +2153,30 @@
       <c r="F6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="10" t="n">
-        <v>264.6489</v>
+      <c r="G6" s="10">
+        <v>264.64890000000003</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="n">
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>24204</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1947,30 +2185,30 @@
       <c r="F7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="10" t="n">
-        <v>44.444489</v>
+      <c r="G7" s="10">
+        <v>44.444488999999997</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11" t="n">
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>323625</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>118.1</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1979,30 +2217,30 @@
       <c r="F8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="10" t="n">
-        <v>268.412424</v>
+      <c r="G8" s="10">
+        <v>268.41242399999999</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11" t="n">
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="9">
         <v>323690</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>55.4</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2011,30 +2249,30 @@
       <c r="F9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="10" t="n">
-        <v>133.873196</v>
+      <c r="G9" s="10">
+        <v>133.87319600000001</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11" t="n">
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>323713</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="10">
         <v>16.2</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2043,30 +2281,30 @@
       <c r="F10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>48.81393</v>
+      <c r="G10" s="10">
+        <v>48.813929999999999</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="n">
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
         <v>64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="9">
         <v>323706</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="10">
         <v>93.9</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2075,30 +2313,30 @@
       <c r="F11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="10" t="n">
-        <v>279.869</v>
+      <c r="G11" s="10">
+        <v>279.86900000000003</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11" t="n">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="9">
         <v>323626</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="10">
         <v>126</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2107,30 +2345,30 @@
       <c r="F12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="10" t="n">
-        <v>272.087</v>
+      <c r="G12" s="10">
+        <v>272.08699999999999</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11" t="n">
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="9">
         <v>323606</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="10">
         <v>97.5</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -2139,30 +2377,30 @@
       <c r="F13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="10">
         <v>175.637</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11" t="n">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="9">
         <v>323614</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="10">
         <v>106.5</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2171,30 +2409,30 @@
       <c r="F14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="10" t="n">
-        <v>208.469883</v>
+      <c r="G14" s="10">
+        <v>208.46988300000001</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11" t="n">
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="9">
         <v>323605</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="10">
         <v>100.5</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2203,30 +2441,30 @@
       <c r="F15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="10">
         <v>170.892</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11" t="n">
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="9">
         <v>323604</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="10">
         <v>81</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2235,30 +2473,30 @@
       <c r="F16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="10" t="n">
-        <v>173.193133</v>
+      <c r="G16" s="10">
+        <v>173.19313299999999</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="n">
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="9">
         <v>323719</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="10">
         <v>77.7</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2267,30 +2505,30 @@
       <c r="F17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="10">
         <v>246.3</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11" t="n">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="9">
         <v>323696</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="10">
         <v>215.2</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2299,30 +2537,30 @@
       <c r="F18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="10" t="n">
-        <v>542.167274</v>
+      <c r="G18" s="10">
+        <v>542.16727400000002</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11" t="n">
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="9">
         <v>323673</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="10">
         <v>74</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2331,30 +2569,30 @@
       <c r="F19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="10" t="n">
-        <v>177.582732</v>
+      <c r="G19" s="10">
+        <v>177.58273199999999</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11" t="n">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="9">
         <v>24146</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="10">
         <v>11.55</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2363,30 +2601,30 @@
       <c r="F20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="10" t="n">
-        <v>20.798577</v>
+      <c r="G20" s="10">
+        <v>20.798577000000002</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11" t="n">
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="9">
         <v>323574</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="10">
         <v>184.8</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2395,31 +2633,31 @@
       <c r="F21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="10" t="n">
-        <v>570.52944</v>
+      <c r="G21" s="10">
+        <v>570.52944000000002</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11" t="n">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="9">
         <v>323611</v>
       </c>
-      <c r="D22" s="10" t="n">
-        <v>136.95</v>
+      <c r="D22" s="10">
+        <v>136.94999999999999</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>61</v>
@@ -2427,30 +2665,30 @@
       <c r="F22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="10">
         <v>218.554925</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11" t="n">
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="9">
         <v>323609</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="10">
         <v>34.5</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2459,47 +2697,40 @@
       <c r="F23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="10" t="n">
-        <v>96.722</v>
+      <c r="G23" s="10">
+        <v>96.721999999999994</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11" t="n">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.55"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2531,17 +2762,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="9">
         <v>323691</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>31.5</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -2550,47 +2781,39 @@
       <c r="F2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="10">
         <v>47.31</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11" t="n">
+        <v>136</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.66"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2622,17 +2845,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="9">
         <v>23756</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="10">
         <v>290</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -2641,30 +2864,30 @@
       <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="10" t="n">
-        <v>82.094</v>
+      <c r="G2" s="10">
+        <v>82.093999999999994</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="11">
         <v>-280</v>
       </c>
-      <c r="J2" s="11" t="n">
+      <c r="J2" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="9">
         <v>23757</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="10">
         <v>290</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2673,30 +2896,30 @@
       <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="10">
         <v>174.191</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="11">
         <v>-280</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="9">
         <v>23758</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="10">
         <v>290</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2705,30 +2928,30 @@
       <c r="F4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="10">
         <v>22.91</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="11">
         <v>-280</v>
       </c>
-      <c r="J4" s="11" t="n">
+      <c r="J4" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>23759</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>290</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2737,30 +2960,30 @@
       <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="10" t="n">
-        <v>72.235</v>
+      <c r="G5" s="10">
+        <v>72.234999999999999</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="11">
         <v>-280</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>23760</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>240</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2769,47 +2992,39 @@
       <c r="F6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="10" t="n">
-        <v>443.854</v>
+      <c r="G6" s="10">
+        <v>443.85399999999998</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="11">
         <v>-230</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="11">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.44"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="62.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +3056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>117</v>
       </c>
@@ -2849,7 +3064,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="11">
         <v>37.6</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2862,14 +3077,14 @@
       <c r="H2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11" t="n">
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
         <v>57</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>119</v>
       </c>
@@ -2877,7 +3092,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="11"/>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="11">
         <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -2890,14 +3105,14 @@
       <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="n">
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>120</v>
       </c>
@@ -2905,7 +3120,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="11">
         <v>4.8</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -2918,14 +3133,14 @@
       <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="n">
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>121</v>
       </c>
@@ -2933,7 +3148,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>3.6</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -2946,14 +3161,14 @@
       <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11" t="n">
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>122</v>
       </c>
@@ -2961,7 +3176,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="11">
         <v>39.5</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -2974,14 +3189,14 @@
       <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="n">
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
         <v>51</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>123</v>
       </c>
@@ -2989,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="11">
         <v>29.6</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -3002,14 +3217,14 @@
       <c r="H7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11" t="n">
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>124</v>
       </c>
@@ -3017,7 +3232,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>4.5</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3030,14 +3245,14 @@
       <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11" t="n">
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>125</v>
       </c>
@@ -3045,7 +3260,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>6.4</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -3058,14 +3273,14 @@
       <c r="H9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11" t="n">
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
         <v>48</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>126</v>
       </c>
@@ -3073,7 +3288,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>4.8</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -3086,14 +3301,14 @@
       <c r="H10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="n">
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>127</v>
       </c>
@@ -3101,7 +3316,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="11">
         <v>61.9</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3114,14 +3329,14 @@
       <c r="H11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11" t="n">
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>128</v>
       </c>
@@ -3129,7 +3344,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>3.2</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -3142,14 +3357,14 @@
       <c r="H12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11" t="n">
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>129</v>
       </c>
@@ -3157,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="11">
         <v>0.7</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3170,14 +3385,14 @@
       <c r="H13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11" t="n">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>130</v>
       </c>
@@ -3185,7 +3400,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="11">
         <v>14.4</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -3198,14 +3413,14 @@
       <c r="H14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11" t="n">
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>131</v>
       </c>
@@ -3213,7 +3428,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="11">
         <v>12</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -3226,14 +3441,14 @@
       <c r="H15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11" t="n">
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>132</v>
       </c>
@@ -3241,8 +3456,8 @@
         <v>40</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11" t="n">
-        <v>9.2</v>
+      <c r="D16" s="11">
+        <v>9.1999999999999993</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>118</v>
@@ -3254,14 +3469,14 @@
       <c r="H16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="n">
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>133</v>
       </c>
@@ -3269,7 +3484,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="11">
         <v>59.7</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -3282,14 +3497,14 @@
       <c r="H17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11" t="n">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>134</v>
       </c>
@@ -3297,7 +3512,7 @@
         <v>107</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="11">
         <v>123.6</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -3310,14 +3525,14 @@
       <c r="H18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11" t="n">
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>135</v>
       </c>
@@ -3325,7 +3540,7 @@
         <v>107</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="11">
         <v>44</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -3338,20 +3553,15 @@
       <c r="H19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11" t="n">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>